--- a/files/audienceDomainsAccounts.xlsx
+++ b/files/audienceDomainsAccounts.xlsx
@@ -32,22 +32,22 @@
     <t xml:space="preserve">financialAccounts</t>
   </si>
   <si>
-    <t xml:space="preserve">wri.org|worldbank.org|ifc.org|iea.org|un.org|weforum.org|undp.org|europeanclimate.org|theicct.org|wbcsd.org|gggi.org|irena.org|iclei.org|rti.org|eib.org|wwfus.org|afdb.org|dbsa.org|icastusa.org|solarenergy.org|living-future.org|energyalliance.org|gsccnetwork.org|globalmaritimeforum.org|winrock.org|thegef.org|unido.org|isolaralliance.org|cgdev.org|worldsteel.org|ecostandard.org|iied.org|pacificenvironment.org|globalmethanehub.org|africamda.org|worldgbc.org|no-burn.org|iiec.org|solarpowereurope.org|conservation.org|earthsparkinternational.org|ipieca.org|africafc.org|iccsafe.org|sprep.org|endeavor.org|mriglobal.org|sae.org|unops.org|skollglobalthreats.org|wgf.org|boma.org|ieta.org|worldfuturecouncil.org|wisein.org|worldwatch.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Resources Institute|The World Bank Group|International Finance Corporation (IFC)|International Energy Agency|United Nations Foundation|World Economic Forum|United Nations Development Programme|European Climate Foundation|The International Council on Clean Transportation|World Business Council for Sustainable Development|Global Green Growth Institute|International Renewable Energy Agency|International Council of Local Environmental Initiatives|RTI International|European Investment Bank|World Wildlife Fund|African Development Bank|Development Bank of Southern Africa|International Center for Appropriate &amp; Sustainable Technology|Solar Energy International|International Living Future Institute|Global Energy Alliance for People &amp; Planet|Global Strategic Communications Council|Global Maritime Forum|Winrock International|Global Environment Facility|United Nations Industrial Development Organization (UNIDO)|International Solar Alliance|Center for Global Development|World Steel Association|European Environmental Citizens Organisation for Standardisation (ECOS)|International Institute for Environment and Development|Pacific Environment|Global Methane Hub|Africa Minigrid Developers Association|World Green Building Council|Global Alliance for Incinerator Alternatives (GAIA)|International Institute for Energy Conservation|SolarPower Europe|Conservation International|EarthSpark International|International Petroleum Industry Environmental Conservation Association (IPIECA)|Africa Finance Corporation|International Code Council|Pacific Climate Change Centre|Endeavor Global|MRI Global|SAE International|United Nations Office for Project Services|Skoll Global Threats Fund|Wallace Global Fund|Boma International|International Emissions Trading Association|World Future Council|World Institute of Sustainable Energy|Worldwatch Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wri.org|sierraclub.org|worldbank.org|nrdc.org|edf.org|ifc.org|iea.org|theclimategroup.org|un.org|earthjustice.org|c40.org|ceres.org|aceee.org|ef.org|climateworks.org|weforum.org|raponline.org|undp.org|veic.org|tnc.org|europeanclimate.org|greenpeace.org|sepapower.org|e3g.org|theicct.org|votesolar.org|wbcsd.org|calstart.org|slipstreaminc.org|gggi.org|usgbc.org|denvergov.org|ucsusa.org|irena.org|carbontracker.org|pembina.org|iclei.org|lacity.org|iadb.org|seforall.org|energycenter.org|oecd.org|smud.org|westernresources.org|rewiringamerica.org|climateanalytics.org|eei.org|sfgov.org|rti.org|energyinnovation.org|elevateenergy.org|fresh-energy.org|eib.org|newbuildings.org|bsr.org|itri.org.tw|rockfound.org|bloomberg.org|rebuyers.org|uli.org|gridalternatives.org|imt.org|neep.org|ciff.org|neea.org|climateworksaustralia.org|climatenexus.org|naruc.org|mncee.org|ieefa.org|cityoftacoma.org|seia.org|bluegreenalliance.org|wwfus.org|watttime.org|solarunitedneighbors.org|afdb.org|csu.org|ase.org|breakthroughenergy.org|newclimate.org|ndcpartnership.org|americanprogress.org|unpri.org|gcfund.org|energytrust.org|clintonfoundation.org|buildingdecarb.org|swenergy.org|forthmobility.org|clientearth.org|climateimperative.org|dbsa.org|bouldercounty.org|acore.org|icastusa.org|2degrees-investing.org|powerforall.org|tristategt.org|solarenergy.org|climatesolutions.org|biologicaldiversity.org|energycoalition.org|wupperinst.org|spp.org|aspeninstitute.org|electrificationcoalition.org|appvoices.org|ebce.org|psehealthyenergy.org|rff.org|southface.org|atlanticcouncil.org|portseattle.org|mwalliance.org|aea.us.org|utahcleanenergy.org|irecusa.org|c2es.org|eesi.org|igsd.org|svcleanenergy.org|api.org|living-future.org|energyalliance.org|ashrae.org|cleanegroup.org|efchina.org|eweb.org|cleanenergy.org|e4thefuture.org|energyweb.org|publicpower.org|gsccnetwork.org|ghhi.org|nwf.org|climate-kic.org|tempestadvisors.org|energync.org|usclimatealliance.org|selcnc.org|citizensutilityboard.org|pluginamerica.org|seventhwave.org|sfwater.org|earthadvantage.org|itdp.org|urbangreencouncil.org|cityofpaloalto.org|globalmaritimeforum.org|sustain.org|usdn.org|sequoiaclimate.org|macfound.org|resource-solutions.org|cityofchicago.org|kp.org|audubon.org|shareaction.org|smartfreightcentre.org|weact.org|winrock.org|blueplanetfoundation.org|a2gov.org|seealliance.org|clearpath.org|cee1.org|prayaspune.org|metrovancouver.org|pewtrusts.org|walkingmountains.org|rbf.org|climatelead.org|ikeafoundation.org|bpi.org|thegef.org|responsiblesteel.org|greenlining.org|wemeanbusinesscoalition.org|theclimatecenter.org|renewwisconsin.org|architecture2030.org|caribank.org|generation180.org|iigcc.org|nwenergy.org|niskanencenter.org|nctcog.org|citizen.org|unido.org|ourenergypolicy.org|oxfordenergy.org|hsfoundation.org|cleanenergyworks.org|clean-coalition.org|emeraldcities.org|lcv.org|selcofoundation.org|advancedenergyunited.org|eepartnership.org|builditgreen.org|cleanwisconsin.org|isolaralliance.org|acadiacenter.org|cityofboise.org|gbci.org|lgc.org|stopwaste.org|bezosearthfund.org|mcknight.org|san.org|hewlett.org|opensocietyfoundations.org|aspencore.org|climateactioncampaign.org|weccusa.org|chathamhouse.org|climatecatalyst.org|energystorage.org|environmentalintegrity.org|gastechnology.org|justtransitionfund.org|resourcegovernance.org|sonomacleanpower.org|southsouthnorth.org|valoventures.org|acumen.org|cgdev.org|chesapeakeclimate.org|climate-chance.org|keealliance.org|nema.org|nrdc-china.org|thirdway.org|aci-na.org|oxfam.org|prospectsv.org|aia.org|aspencommunityfoundation.org|nescaum.org|pecanstreet.org|ashden.org|cprindia.org|oregoncub.org|fwwatch.org|habitat.org|itif.org|irade.org|mightyearth.org|nclc.org|nyc-eja.org|tompkins-co.org|worldsteel.org|beicities.org|carilec.org|ccap.org|climateprotection.org|cecmail.org|energyoutreach.org|i4ce.org|kapsarc.org|nlc.org|necec.org|theoec.org|odi.org.uk|spur.org|socialalpha.org|solar1.org|transportenvironment.org|cleanair.org|climatearc.org|ny.frb.org|miq.org|granthamfoundation.org|11thhourproject.org|climatecabinet.org|energyandpolicy.org|turn.org|aspennature.org|conservationco.org|edenhousing.org|asyousow.org|ecostandard.org|nypirg.org|sparknorthwest.org|wppienergy.org|citizensclimatelobby.org|cleanenergycanada.org|cuts.org|forumforthefuture.org|ilsr.org|iied.org|pacificenvironment.org|ran.org|paulsoninstitute.org|portofsandiego.org|xprize.org|publicinterestnetwork.org|disasterphilanthropy.org|est.org.uk|globalmethanehub.org|sallfamily.org|rockpa.org|rwjf.org|africamda.org|b-e-f.org|cpiclimatefinance.org|enterprisecommunity.org|hightidefoundation.org|nhtinc.org|moore.org|aaainitiative.org|amppartners.org|argosyfnd.org|caribbeanaccelerator.org|citact.org|climateandenergy.org|environmentamerica.org|growaldclimatefund.org|integration.org|kresge.org|marc.org|prpa.org|rstreet.org|sightline.org|worldgbc.org|trucking.org|awea.org|carbonneutralcities.org|cubminnesota.org|cleantechnologyhub.org|nacfe.org|no-burn.org|gbapgh.org|iejusa.org|iiec.org|majorityact.org|mercyhousing.org|mtassociation.org|ncsl.org|nrri.org|nyshcr.org|orfonline.org|partners.org|self-help.org|solarpowereurope.org|sustainablesv.org|stanleyfoundation.org|tws.org|unicef.org|energydistrict.org|fcpr.org|missionpossiblepartnership.org|portla.org|robertsonfoundation.org|srf.org|sustainableconnections.org|lemelson.org|volofoundation.org|ruralelec.org|bvsd.org|ccreee.org|cityofbloomfield.org|cleanairfund.org|conservation.org|earthsparkinternational.org|foe.org|gridlab.org|heetma.org|ipieca.org|jpbfoundation.org|laudesfoundation.org|realtors.org|nibs.org|nethope.org|nextgenamerica.org|rreal.org|summitfdn.org|africafc.org|airlines.org|aarp.org|ashoka.org|bcse.org|cgmf.org|cargroup.org|cetonline.org|cupertino.org|cleangridalliance.org|commonwealthclub.org|sd-gbc.org|colombiainteligente.org|ecolibrium3.org|eanvt.org|eri.org.cn|dmns.org|geoexchange.org|iccsafe.org|jepic-usa.org|lcra.org|mid.org|mercycorps.org|mwcog.org|naesco.org|natcapsolutions.org|nwcouncil.org|nei.org|sprep.org|redwoodenergy.org|raqc.org|resource-media.org|wwfmex.org|ecoseeds.org|sei-us.org|tid.org|theclimateregistry.org|envirocenter.org|worc.org|ecoamerica.org|amazonwatch.org|gatesfoundation.org|bostonhousing.org|caep.org.cn|cre.org|gridwise.org|oceana.org|aluminum.org|packard.org|broadfoundation.org|leightyfoundation.org|aceny.org|brookingsindia.org|cchrc.org|coseia.org|delta-foundation.org.tw|ecsc.org|ecw.org|frontandcentered.org|goodenergies.org|mrets.org|mspmac.org|oceanconservancy.org|padf.org|phl.org|reamp.org|ristrust.org|sandlerfoundation.org|taraclimate.org|tatatrusts.org|durst.org|thorntonfamilyfoundations.org|nathancummings.org|oakhillfund.org|verdenw.org|vplc.org|americansecurityproject.org|autosinnovate.org|allianceforagreeneconomy.org|ap.org|bipartisanpolicy.org|buncombecounty.org|bankwatch.org|calcef.org|californiahydrogen.org|capmetro.org|carbonwa.org|mott.org|las-cruces.org|cleanenergytransition.org|cleanenergytrust.org|climate.org|earthisland.org|endeavor.org|eprinc.org|fuelsinstitute.org|grandcanyontrust.org|groundswell.org|heinzoffice.org|icet.org.cn|ideasforus.org|interwest.org|igcc.org.au|mriglobal.org|mass-group.org|mlgw.org|nacto.org|nesgroup.org|oeconline.org|outdoorindustry.org|prairierivers.org|project-syndicate.org|regions20.org|realaska.org|riseboro.org|sae.org|sandag.org|sandiegoenergydistrict.org|savechildren.org|skoll.org|funder-forum.org|theclimatemap.org|tcbinc.org|t4america.org|unops.org|friends.org|aluminium-stewardship.org|ourfinancialsecurity.org|assistasia.org|spitzertrust.org|buildzero.org|buildingtransparency.org|cedmc.org|carolynfoundation.org|grupocne.org|cityscale.org|claralionelfoundation.org|energyfuturecoalition.org|fsg.org|fchea.org|irem.org|marincf.org|mountainfilm.org|msichicago.org|neefusa.org|openphilanthropy.org|overbrook.org|psequity.org|rsfsocialfinance.org|saneenergyproject.org|7thgenerationadvisors.org|skollglobalthreats.org|scen-us.org|southerntiersolarworks.org|thnk.org|theefa.org|fordfoundation.org|mulagofoundation.org|oceanfdn.org|pipertrust.org|wgf.org|amnie.org|activephilanthropy.org|advancedbiofuelsusa.org|evtransportationalliance.org|barrfoundation.org|bayareacouncil.org|biodiversityfunders.org|boma.org|bruegel.org|calcars.org|storagealliance.org|caleja.org|ceg.org|ctrma.org|centralina.org|cdi.org.cn|juneau.org|cleancooking.org|cleanenergyleaders.org|climatejobsny.org|credcentre.org|cresource.org|hiltonfoundation.org|coppermark.org|defenders.org|diphuelva.org|ddcf.org|ecocenter.org|empirecleancities.org|energies2050.org|enotrans.org|environmentnewjersey.org|fiafoundation.org|farmandcity.org|atl.frb.org|florafamily.org|footprintproject.org|forest-trends.org|gcvoters.org|glpf.org|greenbelt.org|gridworks.org|mpp.hertie-school.org|bur.org|idinsight.org|independentdiplomat.org|indiaclimatecollaborative.org|ieer.org|ieta.org|islandinstitute.org|ivey.org|the-klu.org|moss.org.au|mdcleanenergy.org|mdcollaborative.org|michigan.org|montanarenewables.org|naacpnet.org|aisc.org|necv.org|nonprofithousing.org|nclt.org|novim.org|osaeda.org|parisar.org|parkcity.org|parkfoundation.org|pennfuture.org|psr-la.org|punecorporation.org|resolv.org|raabassociates.org|renewables100.org|rivernetwork.org|slocatpartnership.org|samuellawrencefoundation.org|sfclt.org|sasb.org|self.org|denversouthedp.org|sunvalleyinstitute.org|endowmentinstitute.org|seas.org.sg|sustainablefoodtrade.org|tiaa.org|tndc.org|gridprotectionalliance.org|earthgenome.org|theenergychallenge.org|storerfoundation.org|joycefdn.org|sfct.org.uk|sff.org|tides.org|transformca.org|usbcsd.org|wildaid.org|wwf.org.au|wilsoncenter.org|worldfuturecouncil.org|wisein.org|worldwatch.org|zegarff.org|sspmn.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Resources Institute|Sierra Club|The World Bank Group|Natural Resources Defense Council|Environmental Defense Fund|International Finance Corporation (IFC)|International Energy Agency|The Climate Group|United Nations Foundation|EarthJustice|C40 Cities Climate Leadership Group - Clinton Climate Initiative|Ceres|American Council for an Energy-Efficient Economy|Energy Foundation|ClimateWorks Foundation|World Economic Forum|The Regulatory Assistance Project (RAP)|United Nations Development Programme|Vermont Energy Investment Corporation (VEIC)|The Nature Conservancy|European Climate Foundation|Greenpeace|Smart Electric Power Alliance|E3G|The International Council on Clean Transportation|Vote Solar Initiative|World Business Council for Sustainable Development|CALSTART|Slipstream Inc.|Global Green Growth Institute|U.S. Green Building Council|City of Denver|Union of Concerned Scientists (UCS)|International Renewable Energy Agency|Carbon Tracker|The Pembina Institute|International Council of Local Environmental Initiatives|City of Los Angeles|Inter-American Development Bank|UN SEforAll|California Center for Sustainable Energy|Organisation For Economic Co-operation And Development|Sacramento Municipal Utility District|Western Resource Advocates|Rewiring America|Climate Analytics|Edison Electric Institute|City and County of San Francisco|RTI International|Energy Innovation Policy and Technology LLC|Elevate Energy|Fresh Energy|European Investment Bank|New Buildings Institute|BSR|ITRI|The Rockefeller Foundation|Bloomberg Philanthropies|Clean Energy Buyers Alliance|Urban Land Institute|GRID Alternatives|Institute for Market Transformation|Northeast Energy Efficiency Partnerships (NEEP)|The Children's Investment Fund Foundation|Northwest Energy Efficiency Alliance|ClimateWorks Australia|Climate Nexus|National Association of Regulatory Utility Commissioners (NARUC)|Center for Energy and Environment|Institute for Energy Economics and Financial Analysis (IEEFA)|Tacoma Public Utilities|Solar Energy Industries Association|Blue Green Alliance|World Wildlife Fund|WattTime|Solar United Neighbors|African Development Bank|Colorado Springs Utilities|Alliance to Save Energy|Breakthrough Energy|New Climate Institute|Nationally Determined Contributions (NDC) Partnership|Center for American Progress|Net Zero Asset Owners Alliance|Green Climate Fund|Energy Trust of Oregon|Clinton Foundation|Building Decarbonization Coalition|Southwest Energy Efficiency Project|Forth Mobility Fund|Client Earth|Climate Imperative|Development Bank of Southern Africa|Boulder County, Colorado|American Council on Renewable Energy|International Center for Appropriate &amp; Sustainable Technology|2 Degrees Investing Initiative|Power for All|Tri-State Generation and Transmission Association|Solar Energy International|Climate Solutions|CENTER for BIOLOGICAL DIVERSITY|The Energy Coalition|Wuppertal Institute|Southwest Power Pool Inc.|The Aspen Institute|Electrification Coalition|Appalachian Voices|East Bay Community Energy|Physicians, Scientists, and Engineers for Healthy Energy|Resources for the Future|Southface Energy Institute|Atlantic Council|Port of Seattle|Midwest Energy Efficieny Alliance|Association for Energy Affordability|Utah Clean Energy|Interstate Renewable Energy Council|C2ES|Environmental and Energy Study Institute|Institute For Governance And Sustainable Development|Silicon Valley Clean Energy|American Petroleum Institute|International Living Future Institute|Global Energy Alliance for People &amp; Planet|American Society of Heating, Refrigerating and Air-Conditioning Engineers|Clean Energy Group|Energy Foundation China - EFC|Eugene Water &amp; Electric Board (EWEB)|Southern Alliance for Clean Energy|E4TheFuture|Energy Web Foundation|APPA|Global Strategic Communications Council|Green and Healthy Homes Initiative|National Wildlife Federation|EIT Climate-KIC|Tempest/Sea Change Foundation|North Carolina Sustainable Energy Association|U.S. Climate Alliance|Southern Environmental Law Center|Citizens Utility Board of Illinois|Plug In America|Seventhwave|San Francisco Public Utilities Commission|Earth Advantage Institute|Institute for Transportation and Development Policy - India|Urban Green Council|City of Palo Alto|Global Maritime Forum|Institute for Sustainable Communities|Urban Sustainability Directors Network|Sequoia Climate Foundation|The John D. &amp; Catherine T. MacArthur Foundation|Center for Resource Solutions|City of Chicago|Kaiser Permanente|National Audubon Society (DC)|ShareAction|Smart Freight Centre|WE ACT for Environmental Justice|Winrock International|Blue Planet Foundation|City of Ann Arbor|Southeast Energy Efficiency Alliance|ClearPath Foundation|Consortium for Energy Efficiency|Prayas|Metro Vancouver|The Pew Charitable Trusts|Walking Mountains Science Center|Rockefeller Brothers Fund|Climate Leadership Initiative|IKEA Foundation|Building Performance Institute|Global Environment Facility|Responsible Steel|The Greenlining Institute|We Mean Business Coalition|The Climate Center|RENEW Wisconsin|Architecture 2030|Caribbean Development Bank|Generation180|IIGCC|NW Energy Coalition|Niskanen Center|North Central Texas Council of Governments|Public Citizen's Energy Program|United Nations Industrial Development Organization (UNIDO)|Our Energy Policy|The Oxford Institute of Energy Studies, University of Oxford|Heising-Simons Foundation|Clean Energy Works|Clean Coalition|Emerald Cities Collaborative|League of Conservation Voters|Selco Foundation|Advanced Energy United|SPEER|Build It Green|Clean Wisconsin|International Solar Alliance|Acadia Center|City of Boise|Green Building Certification Institute|Local Government Commission|StopWaste.org|Bezos Earth Fund|McKnight Foundation|San Diego County Regional Airport Authority|The William and Flora Hewlett Foundation|Open Society Foundations|Community Office for Resource Efficiency - CORE|Climate Action Campaign|Wisconsin Energy Conservation Corporation (WECC)|Chatham House|Climate Catalyst|Energy Storage Association (ESA)|Environmental Integrity Project|Gas Technology Institute|Just Transition Fund|Natural Resource Governance Institute|Sonoma Clean Power|SouthSouthNorth|Valo Ventures|Acumen Fund|Center for Global Development|Chesapeake Climate Action Network|Climate Chance|Keystone Energy Efficiency Alliance|National Electrical Manufacturers Association (NEMA)|Natural Resources Defense Council (China)|Third Way|ACI North America|Oxfam|Prospect Silicon Valley|American Institute of Architects|Aspen Community Foundation|Northeast States for Coordinated Air Use Management (NESCAUM)|Pecan Street Inc.|Ashden|Centre for Policy Research|Citizens Utility Board of Oregon|Food &amp; Water Watch|Habitat for Humanity|Information Technology &amp; Innovation Foundation (ITIF)|Integrated Research and Action for Development|Mighty Earth|National Consumer Law Center|New York City Environmental Justice Alliance|Tompkins County Planning Dept|World Steel Association|Building Electrification Initiative|CARILEC|Center for Clean Air Policy|Center for Climate Protection|Community Environmental Council|Energy Outreach Colorado|Institute for Climate Economics|KAPSARC|National League of Cities|New England Clean Energy Council|Ohio Environmental Council|Overseas Development Institute|San Francisco Bay Area Planning and Urban Research Association|Social Alpha, Urban Livability Team|Solar1|Transport &amp; Environment|Clean Air Council|Climate Arc|Federal Reserve Bank of New York|MiQ Foundation|The Grantham Foundation for the Protection of the Environment|The Schmidt Family Foundation|Climate Cabinet|Energy and Policy Institute|The Utility Reform Network|Aspen Center for Environmental Studies|Conservation Colorado|Eden Housing|As You Sow|European Environmental Citizens Organisation for Standardisation (ECOS)|New York Public Interest Research Group (NYPIRG)|Spark Northwest|WPPI Energy|Citizens Climate Lobby|Clean Energy Canada|Consumer Unity &amp; Trust Society|Forum for the Future|Institute for Local Self-Reliance|International Institute for Environment and Development|Pacific Environment|Rainforest Action Network|The Paulson Institute|Unified Port of San Diego|XPRIZE|thepublicinterestnetwork|Center for Disaster Philanthropy|Energy Saving Trust-UK|Global Methane Hub|Sall Family Foundation|Rockefeller Philanthropy Advisors|The Robert Wood Johnson Foundation|Africa Minigrid Developers Association|Bonneville Environmental Foundation|Climate Policy Initiative|Enterprise Community Partners|High Tide Foundation|National Housing Trust|The Gordon E. and Betty I. Moore Foundation|AAA Initiative|American Municipal Power|Argosy Foundation|Caribbean Climate Smart Accelerator|Citizens Action Coalition of Indiana|Climate + Energy Project|Environment America|Growald Climate Fund|Integration|Kresge Foundation|Mid America Regional Council|Platte River Power Authority|R Street Institute|Sightline Institute|World Green Building Council|American Trucking Associations|American Wind Energy Association|Carbon Neutral Cities Alliance (CNCA/USDN)|Citizens Utility Board of Minnesota|Clean Technology Hub|Dave Schaller Household|Global Alliance for Incinerator Alternatives (GAIA)|Green Building Alliance|Initiative for Energy Justice|International Institute for Energy Conservation|Majority Action|Mercy Housing|Mountain Association|National Conference of State Legislatures|National Regulatory Research Institute|New York State Homes and Community Renewal|Observer Research Foundation|Partners HealthCare System, Inc.|Self-Help Credit Union|SolarPower Europe|Sustainable Silicon Valley|The Stanley Center for Peace and Security|The Wilderness Society|UNICEF Innovation Fund|Winneshiek Energy District|Fundacion Comunitaria de Puerto Rico|Mission Possible Partnership|Port of Los Angeles|Robertson Foundation|Smith Richardson Foundation, Inc.|Sustainable Connections|The Lemelson Foundation|VoLo Foundation|Alliance for Rural Electrification|Boulder Valley School District|Caribbean Centre for Renewable Energy and Energy Efficiency|City of Bloomfield|Clean Air Fund|Conservation International|EarthSpark International|Friends of the Earth|GridLab|HEET (Home Energy Efficiency Team)|International Petroleum Industry Environmental Conservation Association (IPIECA)|JPB Foundation|Laudes Foundation|National Association of Realtors|National Institute of Building Sciences|NetHope|NextGen Climate America|Rural Renewable Energy Alliance|The Summit Foundation|Africa Finance Corporation|Airlines for America|American Association of Retired Persons (AARP)|Ashoka|Business Council for Sustainable Energy|Catena Foundation|Center for Automotive Research|Center for EcoTechnology|City of Cupertino|Clean Grid Alliance|Climate One at The Commonwealth Club|Colleen Fitzsimons Household|Colombia Intelligente|Ecolibrium3|Energy Action Network|Energy System Analysis Center|George Sparks and Shandra Wilson Household|Geothermal Exchange Organization|International Code Council|Japan Electric Power Information Center Inc|LCRA|MID|Mercy Corps|Metropolitan Washington|National Association of Energy Service Companies|Natural Capital Solutions|Northwest Power and Conservation Council|Nuclear Energy Institute|Pacific Climate Change Centre|Redwood Coast Energy Authority|Regional Air Quality Council|Resource Media|Science Based Targets Initiative (SBTi)|Seeds|Stockholm Environment Institute|TID Water &amp; Power|The Climate Registry|The Environmental Center|Western Organization of Resource Councils|ecoAmerica|Amazon Watch|Bill and Melinda Gates Foundation|Boston Housing Authority|Chinese Academy for Environmental Planning|Counselors of Real Estate|Gridwise Alliance|Oceana|The Aluminum Association|The David and Lucile Packard Foundation|The Eli and Edythe Broad Foundation|The Leighty Foundation|Alliance for Clean Energy New York|Brookings India|Cold Climate Housing Research Center|Colorado Solar Energy Industries Association|Delta Electronics Foundation|Electric Cooperatives of South Carolina|Energy Center of Wisconsin|Front and Centered|Good Energies Foundation|M-RETS (Midwest Renewable Energy Tracking System, Inc.)|Minneapolis-St. Paul Metropolitan Airports Commission|Ocean Conservancy|Pan American Development Foundation|Philadelphia International Airport|RE-AMP Network|Rural India Supporting Trust|Sandler Foundation|Tara Climate Foundation|Tata Trusts|The Durst Organization, Inc.|The Laney and Pasha Thornton Foundation|The Nathan Cummings Foundation|The Oak Hill Fund|Verde|Virginia Poverty Law Center|ASP|Alliance for Automotive Innovation|Alliance for a Green Economy|Associated Press|Bipartisan Policy Center|Buncombe County|CEE Bankwatch Network/Center for Transport and Energy|California Clean Energy Fund|California Hydrogen Business Council|Capital Metropolitan Transportation Authority|Carbon Washington|Charles Stewart Mott Foundation|City of Las Cruces|Clean Energy Transition Institute|Clean Energy Trust|Climate Institute|Earth Island Institute|Endeavor Global|Energy Policy Research Foundation, Inc.|Fuels Institute|Grand Canyon Trust|Groundswell|Heinz Family Foundation|Innovation Center for Energy and Transportation|Intellectual Decisions on Environmental Awareness Sol|Interwest Energy Alliance|Investor Group on Climate Change|MRI Global|Mass|Memphis Light, Gas and Water|National Association of City Transportation Officials (NACTO)|Nigerina Economic Summit Group|Oregon Environmental Council|Outdoor Industry Association|Prairie Rivers Network|Project Syndicate|R20 Regions of Climate Action|Renewable Energy Alaska Project (REAP)|RiseBoro|SAE International|San Diego Association of Governments|San Diego Energy District|Save The Children|Skoll Foundation|Stichting Funder Forum on Oil and Gas (FFOG)|The Climate Map|The Community Builders (TCB)|Transportation For America|United Nations Office for Project Services|1000 Friends of Oregon|Aluminium Stewardship Initiative|Americans For Financial Reform|Assist|Bernard and Anne Spitzer Charitable Trust|BuildZero|Building Transparency|California Efficiency and Demand Management Council|Carolyn Foundation|Center for a New Economy|City Scale|Clara Lionel Foundation|Energy Future Coalition|FSG|Fuel Cell &amp; Hydrogen Energy Association|Institute of Real Estate Management|Marin Community Foundation|Mountain Film Festival|Museum of Science and Industry|National Environmental Education Foundation|Open Philanthropy Project|Overbrook Foundation|Partnership for Southern Equity|RSF Social Finance|SANE Energy Project|Seventh Generation Advisors|Skoll Global Threats Fund|Southeast Climate and Energy Network|Southern Tier Solar Works|THNK|The Educational Foundation of America|The Ford Foundation|The Mulago Foundation|The Ocean Foundation|Virginia G. Piper Charitable Trust|Wallace Global Fund|AMNIe.org|Active Philanthropy|Advanced Biofuels USA|Alliance for Transportation Electrification (ATE)|Barr Foundation|Bay Area Council|Biodiversity Funders Group|Boma International|Bruegel|CalCars|California Energy Storage Alliance|California Environmental Justice Alliance|Center for Economic Growth|Central Texas Regional Mobility Authority|Centralina Regional Council|China Development Institute|City and Borough of Juneau|Clean Cooking Alliance|Clean Energy Leadership Institute|Climate Jobs New York|Community Research and Development Centre|Community Resource Project|Conrad N. Hilton Foundation|Copper Mark|Defenders of Wildlife|Diputaci�_n de Huelva|Doris Duke Charitable Foundation|Ecology center|Empire Clean Cities|Energies 2050|Eno Center For Transportation|Environment New Jersey|FIA Foundation|Farm &amp; City|Federal Reserve Bank of Atlanta|Flora Family Foundation|Footprint Project|Forest Trends|Georgia League of Conservation Voters|Great Lakes Protection Fund|Green Built Alliance|Gridworks|Hertie School of Governance|Hollywood Burbank Airport|IDinsight|Independent Diplomat|India Climate Collaborative|Institute for Energy and Environmental Research|International Emissions Trading Association|Island Institute|Ivey Foundation|Kuhne Logistics University|MOSS|Maryland Clean Energy Center|Memphis Medical District Collaborative|Michigan Energy Office|Montana Renewable Energy Association|National Association for the Advancement of Colored People|National Steel Bridge Alliance|Nebraska Conservation Voters|Non Profit Housing of California|Northern California Land Trust|Novim|OSAEDA|Parisar|Park City Municipal|Park Foundation|PennFuture|Physicians for Social Responsibility-Los Angeles|Pune Municipal Corporation|RE SOLVE|Raab Associates, Ltd|Renewables 100 Policy Institute|River Network|SLOCAT Foundation|Samuel Lawrence Foundation|San Francisco Community Land Trust|Sasb|Solar Electric Light Fund|South Denver Economic Development Partnership|Sun Valley Institute for Resilience|Sustainable Endowments Institute|Sustainable Energy Association of Singapore|Sustainable Food Trade Association|TIAA - The Teachers Insurance and Annuity Association|Tenderloin Neighborhood Development Corporation|Terry Boston LLC|The Earth Genome|The Energy Challenge of Central Oregon|The George B. Storer Foundation|The Joyce Foundation|The Sainsbury Family Charitable Trusts|The San Francisco Foundation|The Tides Foundation|Transform|United States Business Council For Sustainable Development|WILDAID|WWF Austria|Woodrow Wilson Center|World Future Council|World Institute of Sustainable Energy|Worldwatch Institute|Zegar Family Foundation|south st. paul municipal airport - fleming field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">worldbank.org|bofa.com|citi.com|wellsfargo.com|blackrock.com|ifc.org|ing.com|cibc.com|barclays.com|gs.com|morganstanley.com|rbc.com|td.com|utc.wa.gov|sgcib.com|wellsfargo.com|hsbc.com|sc.com|ubs.com|macquarie.com|unicredit.eu|bnpparibas.com|qc.foundation|climatebonds.net|db.com|energyimpactpartners.com|iadb.org|jpmchase.com|navigant.com|ca-cib.com|selcnc.org|climatebonds.net|cobank.com|marathon-cap.com|mastercard.com|pluginamerica.org|skynrg.com|swissre.com|8rivers.com|nl.abnamro.com|aexp.com|arabellaadvisors.com|bbva.com|itaubba.com|gruposantander.com|clp.com.hk|crossboundary.com|greenmountainpower.com|invesco.com|maproyalty.com|navigant.com|pwpartners.com|renewalfunds.com|svb.com|ssga.com|sunpinsolar.us|hud.gov|amalgamatedbank.com|ourfinancialsecurity.org|ctgreenbank.com|circle-economy.com|houstontx.gov|clarionpartners.com|postcodeloterij.nl|tue.nl|gmail.com|fitchratings.com|generationim.com|gccfund.net|guzmanenergy.com|heetma.org|hobbstowne.com|icc.illinois.gov|ieefa.org|kfw.de|kpcb.com|yahoo.com|ngpetp.com|newislandcap.com|nucapital.nl|oaktreecapital.com|paconsulting.com|quadraturecapital.com|rbccm.com|rabobank.nl|sarasin.co.uk|scotiabank.com|seederenergy.com|shell.com|achmeavastgoed.nl|communityp.com|ucdenver.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The World Bank Group|Bank of America|Citi|Wells Fargo|BlackRock|International Finance Corporation (IFC)|ING Group|CIBC|Barclays|Goldman Sachs|Morgan Stanley|Royal Bank of Canada|TD Bank|Washington Utilities and Transportation Commission|Societe Generale|Wells Fargo Foundation|HSBC|Standard Chartered Bank|UBS Group AG|Macquarie Group|UniCredit|BNP Paribas|Quadrature Climate Foundation|Climate Bonds|Deutsche Bank|Energy Impact Partners|Inter-American Development Bank|JPMorgan Chase &amp; Co.|Navigant|Credit Agricole Group|Southern Environmental Law Center|Climate Bonds Initiative|CoBank|Marathon Capital|Mastercard|Plug In America|SkyNRG|Swiss Re Group|8 Rivers Capital|ABN AMRO|American Express|Arabella Advisors|Banco Bilbao Vizcaya Argentaria|Banco Itaú Unibanco S.A.|Banco Santander, S.A.|CLP Holdings Ltd.|CrossBoundary Energy|Green Mountain Power|Invesco Real Estate|MAP Energy, LLC|Navigant Consulting, Inc.|Perella Weinberg Partners|Renewal Funds|Silicon Valley Bank|State Street Corporation|Sunpin Solar|U.S. Department of Housing and Urban Development|Amalgamated Bank|Americans For Financial Reform|CT GreenBank|Circle Economy|City of Houston|Clarion Partners|Dutch Postcode Lottery|Eindhoven University of Technology|Element 8|Fitch Ratings|Generation Foundation|Global Cleantech Capital|Guzman Energy|HEET (Home Energy Efficiency Team)|Hobbs and Towne, Inc.|Illinois Commerce Commission|Institute for Energy Economics and Financial Analysis (IEEFA)|KfW Group|Kleiner Perkins|Ministry of Water, Irrigation, and Energy|NGP Energy Technology Partners|New Island Capital|NuCapital Inc|Oaktree Capital Management, LLC|PA Consulting|Quadrature Capital|RBC Capital Markets|Rabobank|Sarasin &amp; Partners|Scotiabank|Seeder|Shell Foundation|Syntrus Achmea Real Estate|The Community Preservation Corporation (CPC)|University of Colorado, Denver</t>
+    <t xml:space="preserve">^mofaic.gov.ae|^fdb.com.fj|^sida.se|^koica.go.kr|^NA|^idrc.ca|^dbsa.org|^jbic.go.jp|^mep.gov.cn|^dfid.gov.uk|^ifc.org|^NA|^kuwait-fund.org|^un.org|^ebrd.com|^giz.de|^worldbank.org|^iadb.org|^afdb.org|^eib.org|^fcdo.gov.uk|^isdb.org|^usaid.gov|^adb.org|^foun.org.au|^oecd.org|^imf.org|^wto.org|^norad.no|^thegef.org|^undp.org|^jica.go.jp|^caribank.org|^NA|^who.int|^cdb-energy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Abu Dhabi Fund for Development|^Fiji Development Bank|^Swedish International Development Agency|^Korea International Cooperation Agency (KOICA)|^Development Bank of Latin America|^The International Development Research Centre|^Development Bank of Southern Africa|^Japan Bank For International Cooperation|^China Council for International Cooperation on Environment and Development|^Department for International Development - UK|^International Finance Corporation (IFC)|^Ministry of Foreign Affairs (Netherlands)|^Kuwait Fund for Arab Economic Development|^United Nations Foundation|^European Bank for Reconstruction and Development|^Deutsche Gesellschaft für Internationale Zusammenarbeit GmbH (GIZ)|^The World Bank Group|^Inter-American Development Bank|^African Development Bank|^European Investment Bank|^UK Foreign, Commonwealth and Development Office|^Islamic Development Bank|^U.S. Agency for International Development|^Asian Development Bank|^Friends of the United Nations Australia|^Organisation For Economic Co-operation And Development|^International Monetary Fund|^World Trade Organization|^Norwegian Agency for Development Cooperation|^Global Environment Facility|^United Nations Development Programme|^Japan International Cooperation Agency|^Caribbean Development Bank|^Department Of Foreign Affairs And Trade|^World Health Organization|^China Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^sierraclub.org|^nrdc.org|^edf.org|^wri.org|^worldbank.org|^aceee.org|^gggi.org|^theclimategroup.org|^ifc.org|^ceres.org|^iea.org|^oecd.org|^raponline.org|^weforum.org|^undp.org|^earthjustice.org|^gridalternatives.org|^tnc.org|^votesolar.org|^wbcsd.org|^energyinnovation.org|^newbuildings.org|^veic.org|^bloomberg.org|^breakthroughenergy.org|^c40.org|^energyalliance.org|^rewiringamerica.org|^spp.org|^usgbc.org|^aea.us.org|^rebuyers.org|^climateanalytics.org|^rbf.org|^bezosearthfund.org|^energytrust.org|^neea.org|^sepapower.org|^ucsusa.org|^utahcleanenergy.org|^watttime.org|^climateimperative.org|^elevateenergy.org|^fresh-energy.org|^greenpeace.org|^irena.org|^irecusa.org|^aspeninstitute.org|^westernresources.org|^bsr.org|^bluegreenalliance.org|^buildingdecarb.org|^carbontracker.org|^climatelead.org|^climateworksaustralia.org|^e3g.org|^electrificationcoalition.org|^itri.org.tw|^imt.org|^iadb.org|^newclimate.org|^energync.org|^swenergy.org|^usclimatealliance.org|^appvoices.org|^bpi.org|^calstart.org|^disasterphilanthropy.org|^cleanair.org|^cleanenergyworks.org|^climatearc.org|^climatenexus.org|^dbsa.org|^ebce.org|^est.org.uk|^forthmobility.org|^thegef.org|^globalmethanehub.org|^naruc.org|^ndcpartnership.org|^neep.org|^oxfam.org|^solarenergy.org|^solarunitedneighbors.org|^selcnc.org|^greenlining.org|^theicct.org|^uli.org|^wemeanbusinesscoalition.org|^wwfus.org|^2degrees-investing.org|^afdb.org|^americanprogress.org|^mncee.org|^resource-solutions.org|^citizensutilityboard.org|^clean-coalition.org|^cleanegroup.org|^climatecabinet.org|^aspencore.org|^emeraldcities.org|^energyandpolicy.org|^eweb.org|^fcpr.org|^lcv.org|^audubon.org|^psehealthyenergy.org|^pluginamerica.org|^prospectsv.org|^rff.org|^rockpa.org|^seventhwave.org|^shareaction.org|^slipstreaminc.org|^smartfreightcentre.org|^cleanenergy.org|^southface.org|^theclimatecenter.org|^pembina.org|^turn.org|^weact.org|^winrock.org|^advancedenergyunited.org|^africamda.org|^amazonwatch.org|^acore.org|^aia.org|^aspennature.org|^bellona.org|^caep.org.cn|^climateactioncampaign.org|^cpiclimatefinance.org|^climatesolutions.org|^conservationco.org|^e4thefuture.org|^edenhousing.org|^enterprisecommunity.org|^eib.org|^gridwise.org|^iclei.org|^missionpossiblepartnership.org|^nhtinc.org|^nescaum.org|^oceana.org|^pecanstreet.org|^powerforall.org|^renewwisconsin.org|^eepartnership.org|^seealliance.org|^sustainableconnections.org|^seforall.org|^unhcr.org|^weccusa.org|^aceny.org|^energycenter.org|^ccreee.org|^caribbeanaccelerator.org|^climateandenergy.org|^climatecatalyst.org|^cchrc.org|^cee1.org|^earthadvantage.org|^earthsparkinternational.org|^ecw.org|^energyfuturecoalition.org|^energystorage.org|^environmentamerica.org|^environmentalintegrity.org|^eesi.org|^ecostandard.org|^foe.org|^fchea.org|^gcfund.org|^growaldclimatefund.org|^heetma.org|^ieefa.org|^mrets.org|^mightyearth.org|^nwenergy.org|^nyc-eja.org|^nextgenamerica.org|^citizen.org|^rreal.org|^saneenergyproject.org|^svcleanenergy.org|^scen-us.org|^urbangreencouncil.org|^wppienergy.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Sierra Club|^Natural Resources Defense Council|^Environmental Defense Fund|^World Resources Institute|^The World Bank Group|^American Council for an Energy-Efficient Economy|^Global Green Growth Institute|^The Climate Group|^International Finance Corporation (IFC)|^Ceres|^International Energy Agency|^Organisation For Economic Co-operation And Development|^The Regulatory Assistance Project (RAP)|^World Economic Forum|^United Nations Development Programme|^EarthJustice|^GRID Alternatives|^The Nature Conservancy|^Vote Solar Initiative|^World Business Council for Sustainable Development|^Energy Innovation Policy and Technology LLC|^New Buildings Institute|^Vermont Energy Investment Corporation (VEIC)|^Bloomberg Philanthropies|^Breakthrough Energy|^C40 Cities Climate Leadership Group - Clinton Climate Initiative|^Global Energy Alliance for People &amp; Planet|^Rewiring America|^Southwest Power Pool Inc.|^U.S. Green Building Council|^Association for Energy Affordability|^Clean Energy Buyers Alliance|^Climate Analytics|^Rockefeller Brothers Fund|^Bezos Earth Fund|^Energy Trust of Oregon|^Northwest Energy Efficiency Alliance|^Smart Electric Power Alliance|^Union of Concerned Scientists (UCS)|^Utah Clean Energy|^WattTime|^Climate Imperative|^Elevate Energy|^Fresh Energy|^Greenpeace|^International Renewable Energy Agency|^Interstate Renewable Energy Council|^The Aspen Institute|^Western Resource Advocates|^BSR|^Blue Green Alliance|^Building Decarbonization Coalition|^Carbon Tracker|^Climate Leadership Initiative|^ClimateWorks Australia|^E3G|^Electrification Coalition|^ITRI|^Institute for Market Transformation|^Inter-American Development Bank|^New Climate Institute|^North Carolina Sustainable Energy Association|^Southwest Energy Efficiency Project|^U.S. Climate Alliance|^Appalachian Voices|^Building Performance Institute|^CALSTART|^Center for Disaster Philanthropy|^Clean Air Council|^Clean Energy Works|^Climate Arc|^Climate Nexus|^Development Bank of Southern Africa|^East Bay Community Energy|^Energy Saving Trust-UK|^Forth Mobility Fund|^Global Environment Facility|^Global Methane Hub|^National Association of Regulatory Utility Commissioners (NARUC)|^Nationally Determined Contributions (NDC) Partnership|^Northeast Energy Efficiency Partnerships (NEEP)|^Oxfam|^Solar Energy International|^Solar United Neighbors|^Southern Environmental Law Center|^The Greenlining Institute|^The International Council on Clean Transportation|^Urban Land Institute|^We Mean Business Coalition|^World Wildlife Fund|^2 Degrees Investing Initiative|^African Development Bank|^Center for American Progress|^Center for Energy and Environment|^Center for Resource Solutions|^Citizens Utility Board of Illinois|^Clean Coalition|^Clean Energy Group|^Climate Cabinet|^Community Office for Resource Efficiency - CORE|^Emerald Cities Collaborative|^Energy and Policy Institute|^Eugene Water &amp; Electric Board (EWEB)|^Fundacion Comunitaria de Puerto Rico|^League of Conservation Voters|^National Audubon Society (DC)|^Physicians, Scientists, and Engineers for Healthy Energy|^Plug In America|^Prospect Silicon Valley|^Resources for the Future|^Rockefeller Philanthropy Advisors|^Seventhwave|^ShareAction|^Slipstream Inc.|^Smart Freight Centre|^Southern Alliance for Clean Energy|^Southface Energy Institute|^The Climate Center|^The Pembina Institute|^The Utility Reform Network|^WE ACT for Environmental Justice|^Winrock International|^Advanced Energy United|^Africa Minigrid Developers Association|^Amazon Watch|^American Council on Renewable Energy|^American Institute of Architects|^Aspen Center for Environmental Studies|^Bellona|^Chinese Academy for Environmental Planning|^Climate Action Campaign|^Climate Policy Initiative|^Climate Solutions|^Conservation Colorado|^E4TheFuture|^Eden Housing|^Enterprise Community Partners|^European Investment Bank|^Gridwise Alliance|^International Council of Local Environmental Initiatives|^Mission Possible Partnership|^National Housing Trust|^Northeast States for Coordinated Air Use Management (NESCAUM)|^Oceana|^Pecan Street Inc.|^Power for All|^RENEW Wisconsin|^SPEER|^Southeast Energy Efficiency Alliance|^Sustainable Connections|^UN SEforAll|^United Nations High Commissioner for Refugees|^Wisconsin Energy Conservation Corporation (WECC)|^Alliance for Clean Energy New York|^California Center for Sustainable Energy|^Caribbean Centre for Renewable Energy and Energy Efficiency|^Caribbean Climate Smart Accelerator|^Climate + Energy Project|^Climate Catalyst|^Cold Climate Housing Research Center|^Consortium for Energy Efficiency|^Earth Advantage Institute|^EarthSpark International|^Energy Center of Wisconsin|^Energy Future Coalition|^Energy Storage Association (ESA)|^Environment America|^Environmental Integrity Project|^Environmental and Energy Study Institute|^European Environmental Citizens Organisation for Standardisation (ECOS)|^Friends of the Earth|^Fuel Cell &amp; Hydrogen Energy Association|^Green Climate Fund|^Growald Climate Fund|^HEET (Home Energy Efficiency Team)|^Institute for Energy Economics and Financial Analysis (IEEFA)|^M-RETS (Midwest Renewable Energy Tracking System, Inc.)|^Mighty Earth|^NW Energy Coalition|^New York City Environmental Justice Alliance|^NextGen Climate America|^Public Citizen's Energy Program|^Rural Renewable Energy Alliance|^SANE Energy Project|^Silicon Valley Clean Energy|^Southeast Climate and Energy Network|^Urban Green Council|^WPPI Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^bofa.com|^citi.com|wellsfargo.com|blackrock.com|^ifc.org|^ing.com|^cibc.com|barclays.com|^gs.com|morganstanley.com|^rbc.com|^td.com|sgcib.com|hsbc.com|^sc.com|^ubs.com|macquarie.com|unicredit.eu|bnpparibas.com|climatebonds.net|^db.com|energyimpactpartners.com|^iadb.org|jpmchase.com|ca-cib.com|selcnc.org|climatebonds.net|^cobank.com|^marathon-cap.com|mastercard.com|^skynrg.com|swissre.com|8rivers.com|nl.abnamro.com|^aexp.com|arabellaadvisors.com|bbva.com|itaubba.com|gruposantander.com|clp.com.hk|crossboundary.com|greenmountainpower.com|invesco.com|maproyalty.com|pwpartners.com|renewalfunds.com|^svb.com|^ssga.com|amalgamatedbank.com|ourfinancialsecurity.org|ctgreenbank.com|circle-economy.com|clarionpartners.com|generationim.com|gccfund.net|ieefa.org|^kfw.de|^kpcb.com|ngpetp.com|nucapital.nl|oaktreecapital.com|quadraturecapital.com|rbccm.com|rabobank.nl|sarasin.co.uk|scotiabank.com|communityp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank of America|Citi|Wells Fargo|BlackRock|International Finance Corporation (IFC)|ING Group|CIBC|Barclays|Goldman Sachs|Morgan Stanley|Royal Bank of Canada|TD Bank|Societe Generale|Wells Fargo Foundation|HSBC|Standard Chartered Bank|UBS Group AG|Macquarie Group|UniCredit|BNP Paribas|Quadrature Climate Foundation|Climate Bonds|Deutsche Bank|Energy Impact Partners|Inter-American Development Bank|JPMorgan Chase &amp; Co.|Credit Agricole Group|Climate Bonds Initiative|CoBank|Marathon Capital|Mastercard|Plug In America|SkyNRG|Swiss Re Group|8 Rivers Capital|ABN AMRO|American Express|Arabella Advisors|Banco Bilbao Vizcaya Argentaria|Banco Itaú Unibanco S.A.|Banco Santander, S.A.|CLP Holdings Ltd.|CrossBoundary Energy|Invesco Real Estate|MAP Energy, LLC|Perella Weinberg Partners|Renewal Funds|Silicon Valley Bank|State Street Corporation|Sunpin Solar|U.S. Department of Housing and Urban Development|Amalgamated Bank|Americans For Financial Reform|CT GreenBank|Circle Economy|Clarion Partners|Dutch Postcode Lottery|Eindhoven University of Technology|Element 8|Fitch Ratings|Generation Foundation|Global Cleantech Capital|Guzman Energy|HEET (Home Energy Efficiency Team)|Hobbs and Towne, Inc.|Institute for Energy Economics and Financial Analysis (IEEFA)|KfW Group|Kleiner Perkins|Ministry of Water, Irrigation, and Energy|NGP Energy Technology Partners|New Island Capital|NuCapital Inc|Oaktree Capital Management, LLC|PA Consulting|Quadrature Capital|RBC Capital Markets|Rabobank|Sarasin &amp; Partners|Scotiabank|Seeder|Syntrus Achmea Real Estate|The Community Preservation Corporation (CPC)</t>
   </si>
 </sst>
 </file>
